--- a/Test1_1335.xlsx
+++ b/Test1_1335.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="2380" yWindow="1760" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>CCC</t>
   </si>
   <si>
-    <t>HDC</t>
+    <t>VAF</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Test1_1335.xlsx
+++ b/Test1_1335.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="1760" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="2380" yWindow="1760" windowWidth="19660" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Initials</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>AAA</t>
@@ -42,7 +39,16 @@
     <t>CCC</t>
   </si>
   <si>
+    <t>HDC</t>
+  </si>
+  <si>
     <t>VAF</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Measurement1</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,13 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -430,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -438,10 +447,14 @@
         <v>20160101</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RAND()</f>
+        <v>0.79581012414845198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,10 +462,14 @@
         <v>20160102</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D31" ca="1" si="0">RAND()</f>
+        <v>5.4605081238808473E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,10 +477,14 @@
         <v>20160103</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20623337407052822</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -471,10 +492,14 @@
         <v>20160104</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31203092277211275</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,10 +507,14 @@
         <v>20160105</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54444849727492917</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,10 +522,14 @@
         <v>20160106</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6970652699887232E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -504,10 +537,14 @@
         <v>20160107</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36542131521872134</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -515,10 +552,14 @@
         <v>20160108</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64884040805192045</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +567,14 @@
         <v>20160109</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24303764165781938</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -537,10 +582,14 @@
         <v>20160110</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72207066896805017</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,10 +597,14 @@
         <v>20160111</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5600638839069747</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +612,14 @@
         <v>20160112</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23834698923041264</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,10 +627,14 @@
         <v>20160113</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60662529919183394</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -581,10 +642,14 @@
         <v>20160114</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50564919329431612</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -592,10 +657,14 @@
         <v>20160115</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.399678051012291E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -603,10 +672,14 @@
         <v>20160116</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22774419827500025</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -614,10 +687,14 @@
         <v>20160117</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49267825828369638</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -625,10 +702,14 @@
         <v>20160118</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.12108984221967933</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -636,10 +717,14 @@
         <v>20160119</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15741739582639691</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -647,123 +732,164 @@
         <v>20160120</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82539772937092826</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>20160121</v>
+        <v>20160226</v>
       </c>
       <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58700871863384996</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>20160122</v>
+        <v>20160226</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57533668530166659</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>20160123</v>
+        <v>20160226</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53281925308137379</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>20160124</v>
+        <v>20160226</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31729857380855053</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>20160125</v>
+        <v>20160226</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1083277134561484E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>20160126</v>
+        <v>20160226</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>1335</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88758355316274262</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>20160127</v>
+        <v>20160226</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.148199334597567E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>20160128</v>
+        <v>20160226</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2011445769176412</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>20160129</v>
+        <v>20160226</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2519518136927439E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>20160130</v>
+        <v>20160226</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5010806974889443E-2</v>
       </c>
     </row>
   </sheetData>
